--- a/biology/Zoologie/Actidium/Actidium.xlsx
+++ b/biology/Zoologie/Actidium/Actidium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Actidium est un genre de coléoptères de la famille des Ptiliidae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Actidium a été créé par Matthews (d) en 1868[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Actidium a été créé par Matthews (d) en 1868.
 Ne pas le confondre avec le genre Actidium Fr., 1815, un genre de champignons de la classe des Dothideomycetes.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (26 février 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (26 février 2021) :
 Actidium aterrimum (Motschulsky, 1845)
 Actidium boudieri (Allibert, 1844)
 Actidium coarctatum (Haliday, 1855)
@@ -581,7 +597,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Andrew Matthews, « On some species of Trichopterygia new to the British list », Entomologist's monthly magazine, Oxford, vol. 5,‎ 1868, p. 9-13 (ISSN 0013-8908, lire en ligne, consulté le 26 février 2021).</t>
         </is>
